--- a/Project/AI_Prediction_And_Trading_System/dailydata.xlsx
+++ b/Project/AI_Prediction_And_Trading_System/dailydata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\AI SEM\Project\AI_Prediction_And_Trading_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24416963-30FB-4D3C-911B-69B0A6FFBA7B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7690A04F-DE19-4D03-A4E5-C7A0D3A8DDF6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11175" activeTab="1" xr2:uid="{6EC22A81-3E7F-43D9-9E3E-EFE3FF467BC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11175" xr2:uid="{6EC22A81-3E7F-43D9-9E3E-EFE3FF467BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>NameofAgentOwner</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>PredictedGeneration</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -118,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,13 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE14A67A-3A68-41AD-A92B-78B65E178DE7}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -478,6 +494,41 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>153.21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -487,13 +538,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6110782-5D78-4149-91CD-69141FFCEBFA}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -525,6 +582,32 @@
       </c>
       <c r="J1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>231.42</v>
+      </c>
+      <c r="G2">
+        <v>153.21</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
